--- a/Data/Input/ProductStock.xlsx
+++ b/Data/Input/ProductStock.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Stock" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Malzeme Adı</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Masa Lambası</t>
+  </si>
+  <si>
+    <t>Yazıcı Kağıdı</t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,11 +95,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -106,6 +122,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -389,7 +409,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -431,30 +451,38 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2003</v>
+      </c>
+      <c r="C4" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>2004</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32.25" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:3" ht="32.25" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>2005</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3"/>
